--- a/INTLINE/data/136/BOI/Other primary income and secondary income and capital account_historical.xlsx
+++ b/INTLINE/data/136/BOI/Other primary income and secondary income and capital account_historical.xlsx
@@ -3920,16 +3920,16 @@
         <v>-744.431</v>
       </c>
       <c r="GX5" t="n">
-        <v>-1117.749</v>
+        <v>-1117.798</v>
       </c>
       <c r="GY5" t="n">
-        <v>-917.6079999999999</v>
+        <v>-918.096</v>
       </c>
       <c r="GZ5" t="n">
-        <v>-1296.836</v>
+        <v>-1295.987</v>
       </c>
       <c r="HA5" t="n">
-        <v>1205.711</v>
+        <v>1206.172</v>
       </c>
     </row>
     <row r="6">
@@ -5182,16 +5182,16 @@
         <v>-4761.961</v>
       </c>
       <c r="GX7" t="n">
-        <v>-6069.979</v>
+        <v>-6062.065</v>
       </c>
       <c r="GY7" t="n">
-        <v>-2443.945</v>
+        <v>-2436.123</v>
       </c>
       <c r="GZ7" t="n">
-        <v>-3411.631</v>
+        <v>-3404.978</v>
       </c>
       <c r="HA7" t="n">
-        <v>-5402.05</v>
+        <v>-5392.719</v>
       </c>
     </row>
     <row r="8">
@@ -9599,16 +9599,16 @@
         <v>1531.657</v>
       </c>
       <c r="GX14" t="n">
-        <v>951.683</v>
+        <v>959.597</v>
       </c>
       <c r="GY14" t="n">
-        <v>1820.523</v>
+        <v>1828.345</v>
       </c>
       <c r="GZ14" t="n">
-        <v>1226.563</v>
+        <v>1233.215</v>
       </c>
       <c r="HA14" t="n">
-        <v>1604.508</v>
+        <v>1613.839</v>
       </c>
     </row>
     <row r="15">
@@ -12754,16 +12754,16 @@
         <v>3961.426</v>
       </c>
       <c r="GX19" t="n">
-        <v>3870.175</v>
+        <v>3870.224</v>
       </c>
       <c r="GY19" t="n">
-        <v>4091.986</v>
+        <v>4092.473</v>
       </c>
       <c r="GZ19" t="n">
-        <v>4164.546</v>
+        <v>4163.697</v>
       </c>
       <c r="HA19" t="n">
-        <v>4674.736</v>
+        <v>4674.275</v>
       </c>
     </row>
     <row r="20">
